--- a/biology/Botanique/Elettariopsis/Elettariopsis.xlsx
+++ b/biology/Botanique/Elettariopsis/Elettariopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elettariopsis est un genre de plantes de la famille des Zingibéracées. Il contient une trentaine d'espèces d'origine tropicale.
 Le nom de ce genre fait référence au genre Elettaria, à qui il ressemble.
@@ -512,7 +524,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plantes herbacées atteignant 1 mètre de hauteur.</t>
         </is>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (20 oct. 2011)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (20 oct. 2011) :
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la nomenclature de World Checklist of Selected Plant Families (WCSP)  (20 oct. 2011)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la nomenclature de World Checklist of Selected Plant Families (WCSP)  (20 oct. 2011) :
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Elettariopsis compte presque une douzaine d'espèces en Asie du Sud-Est.
 </t>
@@ -635,9 +655,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les huiles essentielles issues de plusieurs espèces d'Elettariopsis ont des propriétés antioxydantes et bactéricides[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les huiles essentielles issues de plusieurs espèces d'Elettariopsis ont des propriétés antioxydantes et bactéricides.
 </t>
         </is>
       </c>
